--- a/TEMOA_Europe_Results/3_Results_ct+_nuc+/_1_Transport_fueltechs.xlsx
+++ b/TEMOA_Europe_Results/3_Results_ct+_nuc+/_1_Transport_fueltechs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="56">
   <si>
     <t>tech</t>
   </si>
@@ -74,7 +74,7 @@
     <t>TRA_FT_AMM_ELCSYS_CU</t>
   </si>
   <si>
-    <t>TRA_FT_AMM_ELCSYS_DT</t>
+    <t>TRA_FT_MTH</t>
   </si>
   <si>
     <t>TRA_FT_DST_INT</t>
@@ -86,7 +86,7 @@
     <t>TRA_FT_AMM_INT_ELCSYS_CU</t>
   </si>
   <si>
-    <t>TRA_FT_AMM_INT_ELCSYS_DT</t>
+    <t>TRA_FT_MTH_INT</t>
   </si>
   <si>
     <t>PRI_COA_HCO</t>
@@ -101,6 +101,9 @@
     <t>RNW_BIO_EMHV</t>
   </si>
   <si>
+    <t>SYN_DST_kt</t>
+  </si>
+  <si>
     <t>PRI_OIL_GSL_kt</t>
   </si>
   <si>
@@ -128,7 +131,7 @@
     <t>HH2_WE_CU</t>
   </si>
   <si>
-    <t>HH2_WE_DT</t>
+    <t>SYN_MTH</t>
   </si>
   <si>
     <t>output_comm</t>
@@ -171,6 +174,9 @@
   </si>
   <si>
     <t>TRA_AMM</t>
+  </si>
+  <si>
+    <t>TRA_MTH</t>
   </si>
   <si>
     <t>TRA_LH2</t>
@@ -534,7 +540,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -586,13 +592,13 @@
         <v>24</v>
       </c>
       <c r="D2">
-        <v>0.5819999999999999</v>
+        <v>0.2910000000000001</v>
       </c>
       <c r="E2">
         <v>0.439</v>
       </c>
       <c r="F2">
-        <v>0.105</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0.03375706032556355</v>
@@ -624,13 +630,13 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.291</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.264</v>
+        <v>0.369</v>
       </c>
       <c r="G3">
         <v>0.105</v>
@@ -662,31 +668,31 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>207130.0072474388</v>
+        <v>205539.0254968779</v>
       </c>
       <c r="E4">
         <v>219100.3696534287</v>
       </c>
       <c r="F4">
-        <v>211310.0781553256</v>
+        <v>211333.8333026214</v>
       </c>
       <c r="G4">
-        <v>210507.3487231961</v>
+        <v>210507.3487231962</v>
       </c>
       <c r="H4">
-        <v>190583.4993710558</v>
+        <v>188726.7996813316</v>
       </c>
       <c r="I4">
-        <v>177271.3947240247</v>
+        <v>149360.4282077233</v>
       </c>
       <c r="J4">
-        <v>152726.575982677</v>
+        <v>148982.2762371601</v>
       </c>
       <c r="K4">
-        <v>136674.6529337124</v>
+        <v>128331.019439511</v>
       </c>
       <c r="L4">
-        <v>35631.0986544397</v>
+        <v>53016.30627192585</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -700,7 +706,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>3815.332465031336</v>
+        <v>5592.27312150198</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -715,16 +721,16 @@
         <v>12181.8</v>
       </c>
       <c r="I5">
-        <v>8705.555281845032</v>
+        <v>14426.4</v>
       </c>
       <c r="J5">
-        <v>10266.6491673007</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>11815.46186957542</v>
+        <v>18915.65</v>
       </c>
       <c r="L5">
-        <v>21160.29999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -732,37 +738,37 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
       </c>
       <c r="D6">
-        <v>79217.14186748723</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>70720.61381623764</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>63062.10694215229</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>72853.43318830669</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>56903.77832428554</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>47547.75670454175</v>
+        <v>21094.82679765696</v>
       </c>
       <c r="J6">
-        <v>41395.24242643061</v>
+        <v>9548.400069402052</v>
       </c>
       <c r="K6">
-        <v>47547.39112322027</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>49500.78089883263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -776,31 +782,31 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>6544.024762966335</v>
+        <v>79217.14186748723</v>
       </c>
       <c r="E7">
-        <v>5842.137663080503</v>
+        <v>70720.61381623764</v>
       </c>
       <c r="F7">
-        <v>5209.478399569102</v>
+        <v>63040.75572271757</v>
       </c>
       <c r="G7">
-        <v>6018.327089468812</v>
+        <v>72853.01097550038</v>
       </c>
       <c r="H7">
-        <v>4965.19764942101</v>
+        <v>61074.41664528807</v>
       </c>
       <c r="I7">
-        <v>3927.8581625491</v>
+        <v>60971.64050718318</v>
       </c>
       <c r="J7">
-        <v>3419.606983052964</v>
+        <v>55390.07848747831</v>
       </c>
       <c r="K7">
-        <v>3927.82796235298</v>
+        <v>59028.27592587206</v>
       </c>
       <c r="L7">
-        <v>4089.194943816607</v>
+        <v>52872.39265484892</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -814,31 +820,31 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>344.4223559455966</v>
+        <v>6544.024762966335</v>
       </c>
       <c r="E8">
-        <v>307.4809296358159</v>
+        <v>5842.137663080503</v>
       </c>
       <c r="F8">
-        <v>274.1830736615318</v>
+        <v>5207.714603181018</v>
       </c>
       <c r="G8">
-        <v>316.7540573404639</v>
+        <v>6018.292211019598</v>
       </c>
       <c r="H8">
-        <v>3462.572044990968</v>
+        <v>5329.110981678408</v>
       </c>
       <c r="I8">
-        <v>206.7293769762684</v>
+        <v>5036.787694071654</v>
       </c>
       <c r="J8">
-        <v>179.9793148975243</v>
+        <v>4575.702135922122</v>
       </c>
       <c r="K8">
-        <v>206.727787492262</v>
+        <v>4876.248880832909</v>
       </c>
       <c r="L8">
-        <v>215.2207865166636</v>
+        <v>4367.71939322665</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -846,37 +852,37 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
         <v>31</v>
       </c>
       <c r="D9">
-        <v>66.91234564031244</v>
+        <v>344.4223559455966</v>
       </c>
       <c r="E9">
-        <v>102.5820087418906</v>
+        <v>307.4809296358159</v>
       </c>
       <c r="F9">
-        <v>102.5820087418906</v>
+        <v>274.090242272685</v>
       </c>
       <c r="G9">
-        <v>102.5820087418906</v>
+        <v>316.7522216326104</v>
       </c>
       <c r="H9">
-        <v>6.639764936336924</v>
+        <v>3716.353710907311</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>265.0940891616659</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>240.8264282064274</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>256.6446779385741</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>229.8799680645605</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -884,37 +890,37 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
         <v>32</v>
       </c>
       <c r="D10">
-        <v>7440.438491302202</v>
+        <v>66.91234564031244</v>
       </c>
       <c r="E10">
-        <v>8087.043507027061</v>
+        <v>102.5820087418905</v>
       </c>
       <c r="F10">
-        <v>4769.284525849924</v>
+        <v>102.5820087418905</v>
       </c>
       <c r="G10">
-        <v>8428.673142576761</v>
+        <v>102.5820087418905</v>
       </c>
       <c r="H10">
-        <v>8880.115393079437</v>
+        <v>6.639764936336924</v>
       </c>
       <c r="I10">
-        <v>9277.091423365639</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>9679.933362930615</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>10042.64657414973</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>10345.59247099006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -922,37 +928,37 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
         <v>33</v>
       </c>
       <c r="D11">
-        <v>229.1565474368417</v>
+        <v>7440.438491302202</v>
       </c>
       <c r="E11">
-        <v>284.0669110913908</v>
+        <v>8087.043507027059</v>
       </c>
       <c r="F11">
-        <v>252.4097255083454</v>
+        <v>4769.284525849926</v>
       </c>
       <c r="G11">
-        <v>205.7653683019904</v>
+        <v>8428.673142576763</v>
       </c>
       <c r="H11">
-        <v>284.0669110913908</v>
+        <v>8880.115393079437</v>
       </c>
       <c r="I11">
-        <v>284.0669110913908</v>
+        <v>9277.091423365639</v>
       </c>
       <c r="J11">
-        <v>284.0669110913908</v>
+        <v>9679.933362930615</v>
       </c>
       <c r="K11">
-        <v>284.0669110913908</v>
+        <v>10042.64657414973</v>
       </c>
       <c r="L11">
-        <v>284.0669110913908</v>
+        <v>10345.59247099006</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -960,37 +966,37 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
         <v>34</v>
       </c>
       <c r="D12">
-        <v>10.38164779160708</v>
+        <v>229.1565474368415</v>
       </c>
       <c r="E12">
-        <v>4.541970908828096</v>
+        <v>284.0669110913908</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>252.4097255083492</v>
       </c>
       <c r="G12">
-        <v>17.52352150537634</v>
+        <v>205.7653683019905</v>
       </c>
       <c r="H12">
-        <v>14.01881720430108</v>
+        <v>149.2089439835059</v>
       </c>
       <c r="I12">
-        <v>10.5141129032258</v>
+        <v>41.15948625803775</v>
       </c>
       <c r="J12">
-        <v>7.009408602150538</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>3.504704301075269</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>18.00541834677419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1004,31 +1010,31 @@
         <v>35</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>9.862565402026725</v>
       </c>
       <c r="E13">
-        <v>0.648852986975442</v>
+        <v>4.541970908828096</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>8.761760752688172</v>
+        <v>17.52352150537634</v>
       </c>
       <c r="H13">
-        <v>12.26646505376344</v>
+        <v>18.0054183467742</v>
       </c>
       <c r="I13">
-        <v>15.77116935483871</v>
+        <v>18.0054183467742</v>
       </c>
       <c r="J13">
-        <v>19.27587365591398</v>
+        <v>7.009408602150538</v>
       </c>
       <c r="K13">
-        <v>22.78057795698925</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>8.279863911290322</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1036,37 +1042,37 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
         <v>36</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.519082389580354</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.6488529869754424</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>8.761760752688174</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>8.279863911290324</v>
       </c>
       <c r="I14">
-        <v>0.08920509891261064</v>
+        <v>8.279863911290324</v>
       </c>
       <c r="J14">
-        <v>0.6339985924219346</v>
+        <v>19.27587365591398</v>
       </c>
       <c r="K14">
-        <v>4.040435035409769</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>23.80845601454629</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1074,7 +1080,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
         <v>37</v>
@@ -1092,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.01680596895144444</v>
       </c>
       <c r="I15">
-        <v>0.0151319583276069</v>
+        <v>0.1043370572402176</v>
       </c>
       <c r="J15">
-        <v>0.0151319583276069</v>
+        <v>0.6491305507495414</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>4.040435035409767</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>23.80845601454629</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1112,37 +1118,37 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D16">
-        <v>1925.01904450974</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>3878.663459399527</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>2109.600477042338</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>3990.836262664585</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>7402.488372093024</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>2280.336705837994</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>1668.36030095528</v>
+        <v>0.6054866100587851</v>
       </c>
       <c r="K16">
-        <v>1045.343185550082</v>
+        <v>0.6054866100587851</v>
       </c>
       <c r="L16">
-        <v>7402.488372093024</v>
+        <v>0.6054866100587851</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1153,34 +1159,34 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17">
-        <v>1776.940656470529</v>
+        <v>3516.000795070563</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>3878.663459399527</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>2109.600477042338</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>3990.836262666379</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>7402.488372093024</v>
       </c>
       <c r="I17">
-        <v>5720.844718154966</v>
+        <v>34536.37304937399</v>
       </c>
       <c r="J17">
-        <v>6404.350832699299</v>
+        <v>16022.50220507258</v>
       </c>
       <c r="K17">
-        <v>7100.188130424584</v>
+        <v>30615.05479475574</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>21654.54340929459</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1188,37 +1194,37 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D18">
-        <v>1811.470425971182</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>1857.8</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>1772.368108473762</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>1857.8</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>1741.842288836272</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>1764.371270141469</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>1798.57440055554</v>
+        <v>16671</v>
       </c>
       <c r="K18">
-        <v>1804.005479257806</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>1462.053537516454</v>
+        <v>21160.3</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1226,10 +1232,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1247,16 +1253,16 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.8184476727147486</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>5.809849873508298</v>
+        <v>16418.73052014734</v>
       </c>
       <c r="K19">
-        <v>37.04345078595429</v>
+        <v>16744.95185295698</v>
       </c>
       <c r="L19">
-        <v>217.9344622881691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1264,37 +1270,113 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20">
+        <v>1811.470425971182</v>
+      </c>
+      <c r="E20">
+        <v>1857.8</v>
+      </c>
+      <c r="F20">
+        <v>1772.368108473762</v>
+      </c>
+      <c r="G20">
+        <v>1857.8</v>
+      </c>
+      <c r="H20">
+        <v>1741.698567082206</v>
+      </c>
+      <c r="I20">
+        <v>595.8290552739505</v>
+      </c>
+      <c r="J20">
+        <v>26.2809306438238</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0.1541223864817076</v>
+      </c>
+      <c r="I21">
+        <v>0.9571811370969209</v>
+      </c>
+      <c r="J21">
+        <v>56.68617178258288</v>
+      </c>
+      <c r="K21">
+        <v>37.04345078595428</v>
+      </c>
+      <c r="L21">
+        <v>217.934462288169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
         <v>23</v>
       </c>
-      <c r="C20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0.1387334643821726</v>
-      </c>
-      <c r="J20">
-        <v>0.1387334643821726</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0.8925869894099848</v>
+      </c>
+      <c r="J22">
+        <v>5.547150781643973</v>
+      </c>
+      <c r="K22">
+        <v>34.54362077660112</v>
+      </c>
+      <c r="L22">
+        <v>34.54362077660112</v>
       </c>
     </row>
   </sheetData>
@@ -1315,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1353,16 +1435,16 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D2">
-        <v>0.5819999999999999</v>
+        <v>0.5820000000000001</v>
       </c>
       <c r="E2">
         <v>0.439</v>
       </c>
       <c r="F2">
-        <v>0.3689999999999999</v>
+        <v>0.369</v>
       </c>
       <c r="G2">
         <v>0.1387570603255635</v>
@@ -1391,7 +1473,7 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3">
         <v>9053.480611543577</v>
@@ -1400,25 +1482,25 @@
         <v>9421.315895097436</v>
       </c>
       <c r="F3">
-        <v>9086.333360678998</v>
+        <v>9087.354832012723</v>
       </c>
       <c r="G3">
-        <v>9421.315895097438</v>
+        <v>9421.315895097434</v>
       </c>
       <c r="H3">
-        <v>8664.089772955396</v>
+        <v>8584.251686297257</v>
       </c>
       <c r="I3">
-        <v>7957.833851484097</v>
+        <v>7906.087192029008</v>
       </c>
       <c r="J3">
-        <v>6962.508760196189</v>
+        <v>6826.367481251573</v>
       </c>
       <c r="K3">
-        <v>6331.905358128286</v>
+        <v>6246.486360898967</v>
       </c>
       <c r="L3">
-        <v>2346.808792140906</v>
+        <v>2279.701169692812</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1426,37 +1508,37 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D4">
         <v>225.296</v>
       </c>
       <c r="E4">
-        <v>231.6339999999999</v>
+        <v>231.634</v>
       </c>
       <c r="F4">
-        <v>225.513</v>
+        <v>225.5130000000001</v>
       </c>
       <c r="G4">
-        <v>227.6503498978703</v>
+        <v>227.6453920091087</v>
       </c>
       <c r="H4">
-        <v>395.9327758165056</v>
+        <v>404.4030365866749</v>
       </c>
       <c r="I4">
-        <v>611.7944120514554</v>
+        <v>537.2481533950136</v>
       </c>
       <c r="J4">
-        <v>904.0082506718204</v>
+        <v>831.3376012963066</v>
       </c>
       <c r="K4">
-        <v>1008.969103578297</v>
+        <v>935.5503822147409</v>
       </c>
       <c r="L4">
-        <v>1744.030760025431</v>
+        <v>1743.415357717957</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1467,7 +1549,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D5">
         <v>3651.221395379269</v>
@@ -1476,25 +1558,25 @@
         <v>3259.605335069284</v>
       </c>
       <c r="F5">
-        <v>2906.614763885898</v>
+        <v>2905.630658332735</v>
       </c>
       <c r="G5">
-        <v>3357.909761866257</v>
+        <v>3357.890301527302</v>
       </c>
       <c r="H5">
-        <v>2719.099028538191</v>
+        <v>2918.389461282307</v>
       </c>
       <c r="I5">
-        <v>2191.538125325422</v>
+        <v>2810.262439202821</v>
       </c>
       <c r="J5">
-        <v>1907.960717228655</v>
+        <v>2553.000965416337</v>
       </c>
       <c r="K5">
-        <v>2191.52127520547</v>
+        <v>2720.690230826825</v>
       </c>
       <c r="L5">
-        <v>2281.555557863151</v>
+        <v>2436.957541452406</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1505,19 +1587,19 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D6">
         <v>66.91234564031244</v>
       </c>
       <c r="E6">
-        <v>102.5820087418906</v>
+        <v>102.5820087418905</v>
       </c>
       <c r="F6">
-        <v>102.5820087418906</v>
+        <v>102.5820087418905</v>
       </c>
       <c r="G6">
-        <v>102.5820087418906</v>
+        <v>102.5820087418905</v>
       </c>
       <c r="H6">
         <v>6.639764936336924</v>
@@ -1543,7 +1625,7 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D7">
         <v>319.9388551259946</v>
@@ -1561,13 +1643,13 @@
         <v>381.8449619024158</v>
       </c>
       <c r="I7">
-        <v>398.9149312047223</v>
+        <v>398.9149312047224</v>
       </c>
       <c r="J7">
         <v>416.2371346060163</v>
       </c>
       <c r="K7">
-        <v>431.8338026884384</v>
+        <v>431.8338026884385</v>
       </c>
       <c r="L7">
         <v>444.8604762525725</v>
@@ -1581,34 +1663,34 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D8">
-        <v>229.1565474368417</v>
+        <v>229.1565474368415</v>
       </c>
       <c r="E8">
         <v>284.0669110913908</v>
       </c>
       <c r="F8">
-        <v>252.4097255083454</v>
+        <v>252.4097255083492</v>
       </c>
       <c r="G8">
-        <v>205.7653683019904</v>
+        <v>205.7653683019905</v>
       </c>
       <c r="H8">
-        <v>284.0669110913908</v>
+        <v>149.2089439835059</v>
       </c>
       <c r="I8">
-        <v>284.0669110913908</v>
+        <v>41.15948625803775</v>
       </c>
       <c r="J8">
-        <v>284.0669110913908</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>284.0669110913908</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>284.0669110913908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1619,13 +1701,13 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D9">
         <v>10.29859460927422</v>
       </c>
       <c r="E9">
-        <v>5.149297304637109</v>
+        <v>5.14929730463711</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1643,10 +1725,10 @@
         <v>26.075</v>
       </c>
       <c r="K9">
-        <v>26.075</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>26.075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1657,7 +1739,7 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1666,22 +1748,22 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.007838014369693013</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.008705114254624594</v>
       </c>
       <c r="I10">
-        <v>0.04620623662776799</v>
+        <v>0.05404425099746101</v>
       </c>
       <c r="J10">
-        <v>0.3283970237151819</v>
+        <v>0.3362350380848748</v>
       </c>
       <c r="K10">
-        <v>2.09285455204933</v>
+        <v>2.092854552049329</v>
       </c>
       <c r="L10">
         <v>12.3322451940515</v>
@@ -1695,7 +1777,7 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1704,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.007838014369693013</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1713,16 +1795,16 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.007838014369693013</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.007838014369693015</v>
+        <v>0.6054866100587851</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.6054866100587851</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.6054866100587851</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1730,10 +1812,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1748,19 +1830,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>-1.522262358073512E-07</v>
+        <v>0.008705114254624594</v>
       </c>
       <c r="I12">
-        <v>0.04533913674283643</v>
+        <v>0.054044250997461</v>
       </c>
       <c r="J12">
-        <v>0.3415713279706644</v>
+        <v>0.3502764422252889</v>
       </c>
       <c r="K12">
-        <v>0.3415713279706643</v>
+        <v>2.180343300924217</v>
       </c>
       <c r="L12">
-        <v>0.3189017595992461</v>
+        <v>2.148968618298174</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1768,10 +1850,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1783,22 +1865,22 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>-1.307470747073983E-07</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>0.0087052664808604</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.008705114254624589</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.008705114254624594</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>1.838771972953556</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>12.5569977998888</v>
+        <v>10.72693094118988</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1806,10 +1888,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1827,16 +1909,16 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>7.6031382228491</v>
+        <v>7.603138222849082</v>
       </c>
       <c r="J14">
-        <v>7.6031382228491</v>
+        <v>45.35164925380288</v>
       </c>
       <c r="K14">
-        <v>7.603138222848931</v>
+        <v>45.35164925380288</v>
       </c>
       <c r="L14">
-        <v>520.9513674752511</v>
+        <v>557.0340359926405</v>
       </c>
     </row>
   </sheetData>
